--- a/MILP_results.xlsx
+++ b/MILP_results.xlsx
@@ -13,7 +13,19 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="12_20" sheetId="1" r:id="rId1"/>
+    <sheet name="100_60" sheetId="1" r:id="rId1"/>
+    <sheet name="120_90" r:id="rId5" sheetId="2"/>
+    <sheet name="12_20" r:id="rId6" sheetId="3"/>
+    <sheet name="20_20" r:id="rId7" sheetId="4"/>
+    <sheet name="30_15" r:id="rId8" sheetId="5"/>
+    <sheet name="30_30" r:id="rId9" sheetId="6"/>
+    <sheet name="40_25" r:id="rId10" sheetId="7"/>
+    <sheet name="40_40" r:id="rId11" sheetId="8"/>
+    <sheet name="50_40" r:id="rId12" sheetId="9"/>
+    <sheet name="55_55" r:id="rId13" sheetId="10"/>
+    <sheet name="60_50" r:id="rId14" sheetId="11"/>
+    <sheet name="75_50" r:id="rId15" sheetId="12"/>
+    <sheet name="80_55" r:id="rId16" sheetId="13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,30 +60,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -100,6 +88,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>20</t>
@@ -132,7 +123,28 @@
     <t>29</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -515,6 +527,3804 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>200.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1380.0</v>
+      </c>
+      <c r="E2">
+        <v>1180.0</v>
+      </c>
+      <c r="F2">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>1260.0</v>
+      </c>
+      <c r="E3">
+        <v>1250.0</v>
+      </c>
+      <c r="F3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>290.0</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>1520.0</v>
+      </c>
+      <c r="E4">
+        <v>1230.0</v>
+      </c>
+      <c r="F4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>220.0</v>
+      </c>
+      <c r="C5">
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>1460.0</v>
+      </c>
+      <c r="E5">
+        <v>1240.0</v>
+      </c>
+      <c r="F5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>120.0</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1340.0</v>
+      </c>
+      <c r="E6">
+        <v>1220.0</v>
+      </c>
+      <c r="F6">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>150.0</v>
+      </c>
+      <c r="C7">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>1350.0</v>
+      </c>
+      <c r="E7">
+        <v>1200.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>20.0</v>
+      </c>
+      <c r="C8">
+        <v>1.0</v>
+      </c>
+      <c r="D8">
+        <v>1260.0</v>
+      </c>
+      <c r="E8">
+        <v>1240.0</v>
+      </c>
+      <c r="F8">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>350.0</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>1590.0</v>
+      </c>
+      <c r="E9">
+        <v>1240.0</v>
+      </c>
+      <c r="F9">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>100.0</v>
+      </c>
+      <c r="C10">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1390.0</v>
+      </c>
+      <c r="E10">
+        <v>1290.0</v>
+      </c>
+      <c r="F10">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>160.0</v>
+      </c>
+      <c r="C11">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1420.0</v>
+      </c>
+      <c r="E11">
+        <v>1260.0</v>
+      </c>
+      <c r="F11">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>490.0</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>1770.0</v>
+      </c>
+      <c r="E12">
+        <v>1280.0</v>
+      </c>
+      <c r="F12">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>1400.0</v>
+      </c>
+      <c r="E13">
+        <v>1390.0</v>
+      </c>
+      <c r="F13">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>120.0</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1250.0</v>
+      </c>
+      <c r="E14">
+        <v>1130.0</v>
+      </c>
+      <c r="F14">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>190.0</v>
+      </c>
+      <c r="C15">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1390.0</v>
+      </c>
+      <c r="E15">
+        <v>1200.0</v>
+      </c>
+      <c r="F15">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>120.0</v>
+      </c>
+      <c r="C16">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1380.0</v>
+      </c>
+      <c r="E16">
+        <v>1260.0</v>
+      </c>
+      <c r="F16">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>310.0</v>
+      </c>
+      <c r="C17">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1580.0</v>
+      </c>
+      <c r="E17">
+        <v>1270.0</v>
+      </c>
+      <c r="F17">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>510.0</v>
+      </c>
+      <c r="C18">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1840.0</v>
+      </c>
+      <c r="E18">
+        <v>1330.0</v>
+      </c>
+      <c r="F18">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>20.0</v>
+      </c>
+      <c r="C19">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>1280.0</v>
+      </c>
+      <c r="E19">
+        <v>1260.0</v>
+      </c>
+      <c r="F19">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>410.0</v>
+      </c>
+      <c r="C20">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <v>1700.0</v>
+      </c>
+      <c r="E20">
+        <v>1290.0</v>
+      </c>
+      <c r="F20">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>390.0</v>
+      </c>
+      <c r="C21">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <v>1590.0</v>
+      </c>
+      <c r="E21">
+        <v>1200.0</v>
+      </c>
+      <c r="F21">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>200.0</v>
+      </c>
+      <c r="C22">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>1450.0</v>
+      </c>
+      <c r="E22">
+        <v>1250.0</v>
+      </c>
+      <c r="F22">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>1250.0</v>
+      </c>
+      <c r="E23">
+        <v>1240.0</v>
+      </c>
+      <c r="F23">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>250.0</v>
+      </c>
+      <c r="C24">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>1460.0</v>
+      </c>
+      <c r="E24">
+        <v>1210.0</v>
+      </c>
+      <c r="F24">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>100.0</v>
+      </c>
+      <c r="C25">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <v>1340.0</v>
+      </c>
+      <c r="E25">
+        <v>1240.0</v>
+      </c>
+      <c r="F25">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>30.0</v>
+      </c>
+      <c r="C26">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <v>1250.0</v>
+      </c>
+      <c r="E26">
+        <v>1220.0</v>
+      </c>
+      <c r="F26">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>130.0</v>
+      </c>
+      <c r="C27">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <v>1330.0</v>
+      </c>
+      <c r="E27">
+        <v>1200.0</v>
+      </c>
+      <c r="F27">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>140.0</v>
+      </c>
+      <c r="C28">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <v>1500.0</v>
+      </c>
+      <c r="E28">
+        <v>1360.0</v>
+      </c>
+      <c r="F28">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>270.0</v>
+      </c>
+      <c r="C29">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>1640.0</v>
+      </c>
+      <c r="E29">
+        <v>1370.0</v>
+      </c>
+      <c r="F29">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <v>1310.0</v>
+      </c>
+      <c r="E30">
+        <v>1300.0</v>
+      </c>
+      <c r="F30">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50.0</v>
+      </c>
+      <c r="C31">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <v>1470.0</v>
+      </c>
+      <c r="E31">
+        <v>1420.0</v>
+      </c>
+      <c r="F31">
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>710.0</v>
+      </c>
+      <c r="E2">
+        <v>700.0</v>
+      </c>
+      <c r="F2">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>800.0</v>
+      </c>
+      <c r="E3">
+        <v>790.0</v>
+      </c>
+      <c r="F3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>740.0</v>
+      </c>
+      <c r="E4">
+        <v>730.0</v>
+      </c>
+      <c r="F4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>700.0</v>
+      </c>
+      <c r="E5">
+        <v>690.0</v>
+      </c>
+      <c r="F5">
+        <v>157.977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>770.0</v>
+      </c>
+      <c r="E6">
+        <v>760.0</v>
+      </c>
+      <c r="F6">
+        <v>384.092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>740.0</v>
+      </c>
+      <c r="E7">
+        <v>730.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>20.0</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>730.0</v>
+      </c>
+      <c r="E8">
+        <v>710.0</v>
+      </c>
+      <c r="F8">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>620.0</v>
+      </c>
+      <c r="E9">
+        <v>610.0</v>
+      </c>
+      <c r="F9">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>820.0</v>
+      </c>
+      <c r="E10">
+        <v>810.0</v>
+      </c>
+      <c r="F10">
+        <v>502.701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>730.0</v>
+      </c>
+      <c r="E11">
+        <v>720.0</v>
+      </c>
+      <c r="F11">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>290.0</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>940.0</v>
+      </c>
+      <c r="E12">
+        <v>650.0</v>
+      </c>
+      <c r="F12">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>710.0</v>
+      </c>
+      <c r="C13">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>1180.0</v>
+      </c>
+      <c r="E13">
+        <v>470.0</v>
+      </c>
+      <c r="F13">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>480.0</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>950.0</v>
+      </c>
+      <c r="E14">
+        <v>470.0</v>
+      </c>
+      <c r="F14">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>780.0</v>
+      </c>
+      <c r="E15">
+        <v>770.0</v>
+      </c>
+      <c r="F15">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>680.0</v>
+      </c>
+      <c r="E16">
+        <v>670.0</v>
+      </c>
+      <c r="F16">
+        <v>499.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>650.0</v>
+      </c>
+      <c r="E17">
+        <v>640.0</v>
+      </c>
+      <c r="F17">
+        <v>281.032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>720.0</v>
+      </c>
+      <c r="E18">
+        <v>710.0</v>
+      </c>
+      <c r="F18">
+        <v>400.244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>680.0</v>
+      </c>
+      <c r="E19">
+        <v>670.0</v>
+      </c>
+      <c r="F19">
+        <v>560.489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>750.0</v>
+      </c>
+      <c r="E20">
+        <v>740.0</v>
+      </c>
+      <c r="F20">
+        <v>409.515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>710.0</v>
+      </c>
+      <c r="E21">
+        <v>700.0</v>
+      </c>
+      <c r="F21">
+        <v>339.766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>20.0</v>
+      </c>
+      <c r="C22">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>710.0</v>
+      </c>
+      <c r="E22">
+        <v>690.0</v>
+      </c>
+      <c r="F22">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>720.0</v>
+      </c>
+      <c r="E23">
+        <v>710.0</v>
+      </c>
+      <c r="F23">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>680.0</v>
+      </c>
+      <c r="E24">
+        <v>670.0</v>
+      </c>
+      <c r="F24">
+        <v>414.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>20.0</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>640.0</v>
+      </c>
+      <c r="E25">
+        <v>620.0</v>
+      </c>
+      <c r="F25">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>700.0</v>
+      </c>
+      <c r="E26">
+        <v>690.0</v>
+      </c>
+      <c r="F26">
+        <v>532.654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>600.0</v>
+      </c>
+      <c r="E27">
+        <v>590.0</v>
+      </c>
+      <c r="F27">
+        <v>198.484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>650.0</v>
+      </c>
+      <c r="E28">
+        <v>640.0</v>
+      </c>
+      <c r="F28">
+        <v>365.236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>660.0</v>
+      </c>
+      <c r="E29">
+        <v>650.0</v>
+      </c>
+      <c r="F29">
+        <v>468.285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>770.0</v>
+      </c>
+      <c r="E30">
+        <v>760.0</v>
+      </c>
+      <c r="F30">
+        <v>247.525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>20.0</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>830.0</v>
+      </c>
+      <c r="E31">
+        <v>810.0</v>
+      </c>
+      <c r="F31">
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>870.0</v>
+      </c>
+      <c r="E2">
+        <v>860.0</v>
+      </c>
+      <c r="F2">
+        <v>265.425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>980.0</v>
+      </c>
+      <c r="E3">
+        <v>970.0</v>
+      </c>
+      <c r="F3">
+        <v>138.049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>960.0</v>
+      </c>
+      <c r="E4">
+        <v>950.0</v>
+      </c>
+      <c r="F4">
+        <v>433.716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>860.0</v>
+      </c>
+      <c r="E5">
+        <v>850.0</v>
+      </c>
+      <c r="F5">
+        <v>291.437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>960.0</v>
+      </c>
+      <c r="E6">
+        <v>950.0</v>
+      </c>
+      <c r="F6">
+        <v>261.286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>20.0</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>940.0</v>
+      </c>
+      <c r="E7">
+        <v>920.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>930.0</v>
+      </c>
+      <c r="E8">
+        <v>920.0</v>
+      </c>
+      <c r="F8">
+        <v>324.147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>980.0</v>
+      </c>
+      <c r="E9">
+        <v>970.0</v>
+      </c>
+      <c r="F9">
+        <v>245.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>20.0</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>870.0</v>
+      </c>
+      <c r="E10">
+        <v>850.0</v>
+      </c>
+      <c r="F10">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>930.0</v>
+      </c>
+      <c r="E11">
+        <v>920.0</v>
+      </c>
+      <c r="F11">
+        <v>481.515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>870.0</v>
+      </c>
+      <c r="E12">
+        <v>860.0</v>
+      </c>
+      <c r="F12">
+        <v>565.025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>880.0</v>
+      </c>
+      <c r="E13">
+        <v>870.0</v>
+      </c>
+      <c r="F13">
+        <v>590.021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>920.0</v>
+      </c>
+      <c r="E14">
+        <v>910.0</v>
+      </c>
+      <c r="F14">
+        <v>378.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>880.0</v>
+      </c>
+      <c r="E15">
+        <v>870.0</v>
+      </c>
+      <c r="F15">
+        <v>453.904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>1000.0</v>
+      </c>
+      <c r="E16">
+        <v>990.0</v>
+      </c>
+      <c r="F16">
+        <v>250.462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>1000.0</v>
+      </c>
+      <c r="E17">
+        <v>990.0</v>
+      </c>
+      <c r="F17">
+        <v>331.986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>900.0</v>
+      </c>
+      <c r="E18">
+        <v>890.0</v>
+      </c>
+      <c r="F18">
+        <v>275.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>1100.0</v>
+      </c>
+      <c r="E19">
+        <v>1090.0</v>
+      </c>
+      <c r="F19">
+        <v>244.114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>890.0</v>
+      </c>
+      <c r="E20">
+        <v>880.0</v>
+      </c>
+      <c r="F20">
+        <v>436.161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>980.0</v>
+      </c>
+      <c r="E21">
+        <v>970.0</v>
+      </c>
+      <c r="F21">
+        <v>500.333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>930.0</v>
+      </c>
+      <c r="E22">
+        <v>920.0</v>
+      </c>
+      <c r="F22">
+        <v>145.225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>980.0</v>
+      </c>
+      <c r="E23">
+        <v>970.0</v>
+      </c>
+      <c r="F23">
+        <v>356.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>730.0</v>
+      </c>
+      <c r="E24">
+        <v>720.0</v>
+      </c>
+      <c r="F24">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>20.0</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>960.0</v>
+      </c>
+      <c r="E25">
+        <v>940.0</v>
+      </c>
+      <c r="F25">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>900.0</v>
+      </c>
+      <c r="E26">
+        <v>890.0</v>
+      </c>
+      <c r="F26">
+        <v>265.866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>20.0</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>840.0</v>
+      </c>
+      <c r="E27">
+        <v>820.0</v>
+      </c>
+      <c r="F27">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>980.0</v>
+      </c>
+      <c r="E28">
+        <v>970.0</v>
+      </c>
+      <c r="F28">
+        <v>306.615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>980.0</v>
+      </c>
+      <c r="E29">
+        <v>970.0</v>
+      </c>
+      <c r="F29">
+        <v>239.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>950.0</v>
+      </c>
+      <c r="E30">
+        <v>940.0</v>
+      </c>
+      <c r="F30">
+        <v>250.743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>20.0</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>1100.0</v>
+      </c>
+      <c r="E31">
+        <v>1080.0</v>
+      </c>
+      <c r="F31">
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>1130.0</v>
+      </c>
+      <c r="E2">
+        <v>1120.0</v>
+      </c>
+      <c r="F2">
+        <v>202.815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>20.0</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1060.0</v>
+      </c>
+      <c r="E3">
+        <v>1040.0</v>
+      </c>
+      <c r="F3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>20.0</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1180.0</v>
+      </c>
+      <c r="E4">
+        <v>1160.0</v>
+      </c>
+      <c r="F4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>20.0</v>
+      </c>
+      <c r="C5">
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>1160.0</v>
+      </c>
+      <c r="E5">
+        <v>1140.0</v>
+      </c>
+      <c r="F5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>20.0</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1130.0</v>
+      </c>
+      <c r="E6">
+        <v>1110.0</v>
+      </c>
+      <c r="F6">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>1210.0</v>
+      </c>
+      <c r="E7">
+        <v>1200.0</v>
+      </c>
+      <c r="F7">
+        <v>414.767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>1030.0</v>
+      </c>
+      <c r="E8">
+        <v>1020.0</v>
+      </c>
+      <c r="F8">
+        <v>502.689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>1050.0</v>
+      </c>
+      <c r="E9">
+        <v>1040.0</v>
+      </c>
+      <c r="F9">
+        <v>336.222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1130.0</v>
+      </c>
+      <c r="E10">
+        <v>1120.0</v>
+      </c>
+      <c r="F10">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>1190.0</v>
+      </c>
+      <c r="E11">
+        <v>1180.0</v>
+      </c>
+      <c r="F11">
+        <v>401.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>1160.0</v>
+      </c>
+      <c r="E12">
+        <v>1150.0</v>
+      </c>
+      <c r="F12">
+        <v>439.821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>1100.0</v>
+      </c>
+      <c r="E13">
+        <v>1090.0</v>
+      </c>
+      <c r="F13">
+        <v>369.244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>1100.0</v>
+      </c>
+      <c r="E14">
+        <v>1090.0</v>
+      </c>
+      <c r="F14">
+        <v>535.487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>1280.0</v>
+      </c>
+      <c r="E15">
+        <v>1270.0</v>
+      </c>
+      <c r="F15">
+        <v>491.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>20.0</v>
+      </c>
+      <c r="C16">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>990.0</v>
+      </c>
+      <c r="E16">
+        <v>970.0</v>
+      </c>
+      <c r="F16">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>1110.0</v>
+      </c>
+      <c r="E17">
+        <v>1100.0</v>
+      </c>
+      <c r="F17">
+        <v>456.522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>1080.0</v>
+      </c>
+      <c r="E18">
+        <v>1070.0</v>
+      </c>
+      <c r="F18">
+        <v>434.487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>1160.0</v>
+      </c>
+      <c r="E19">
+        <v>1150.0</v>
+      </c>
+      <c r="F19">
+        <v>342.677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>1210.0</v>
+      </c>
+      <c r="E20">
+        <v>1200.0</v>
+      </c>
+      <c r="F20">
+        <v>442.312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>1070.0</v>
+      </c>
+      <c r="E21">
+        <v>1060.0</v>
+      </c>
+      <c r="F21">
+        <v>344.366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>1160.0</v>
+      </c>
+      <c r="E22">
+        <v>1150.0</v>
+      </c>
+      <c r="F22">
+        <v>546.855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>20.0</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>1210.0</v>
+      </c>
+      <c r="E23">
+        <v>1190.0</v>
+      </c>
+      <c r="F23">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>1210.0</v>
+      </c>
+      <c r="E24">
+        <v>1200.0</v>
+      </c>
+      <c r="F24">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>1160.0</v>
+      </c>
+      <c r="E25">
+        <v>1150.0</v>
+      </c>
+      <c r="F25">
+        <v>397.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>1150.0</v>
+      </c>
+      <c r="E26">
+        <v>1140.0</v>
+      </c>
+      <c r="F26">
+        <v>541.402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>1150.0</v>
+      </c>
+      <c r="E27">
+        <v>1140.0</v>
+      </c>
+      <c r="F27">
+        <v>482.045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>1180.0</v>
+      </c>
+      <c r="E28">
+        <v>1170.0</v>
+      </c>
+      <c r="F28">
+        <v>446.482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>1080.0</v>
+      </c>
+      <c r="E29">
+        <v>1070.0</v>
+      </c>
+      <c r="F29">
+        <v>384.456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>1140.0</v>
+      </c>
+      <c r="E30">
+        <v>1130.0</v>
+      </c>
+      <c r="F30">
+        <v>461.393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>1170.0</v>
+      </c>
+      <c r="E31">
+        <v>1160.0</v>
+      </c>
+      <c r="F31">
+        <v>426.391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1300.0</v>
+      </c>
+      <c r="E2">
+        <v>1290.0</v>
+      </c>
+      <c r="F2">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>20.0</v>
+      </c>
+      <c r="C3">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>1300.0</v>
+      </c>
+      <c r="E3">
+        <v>1280.0</v>
+      </c>
+      <c r="F3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>120.0</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>1430.0</v>
+      </c>
+      <c r="E4">
+        <v>1310.0</v>
+      </c>
+      <c r="F4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>70.0</v>
+      </c>
+      <c r="C5">
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>1360.0</v>
+      </c>
+      <c r="E5">
+        <v>1290.0</v>
+      </c>
+      <c r="F5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>20.0</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1170.0</v>
+      </c>
+      <c r="E6">
+        <v>1150.0</v>
+      </c>
+      <c r="F6">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>90.0</v>
+      </c>
+      <c r="C7">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>1300.0</v>
+      </c>
+      <c r="E7">
+        <v>1210.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>180.0</v>
+      </c>
+      <c r="C8">
+        <v>1.0</v>
+      </c>
+      <c r="D8">
+        <v>1510.0</v>
+      </c>
+      <c r="E8">
+        <v>1330.0</v>
+      </c>
+      <c r="F8">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>1180.0</v>
+      </c>
+      <c r="E9">
+        <v>1170.0</v>
+      </c>
+      <c r="F9">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1150.0</v>
+      </c>
+      <c r="E10">
+        <v>1140.0</v>
+      </c>
+      <c r="F10">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1330.0</v>
+      </c>
+      <c r="E11">
+        <v>1320.0</v>
+      </c>
+      <c r="F11">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>20.0</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>1300.0</v>
+      </c>
+      <c r="E12">
+        <v>1280.0</v>
+      </c>
+      <c r="F12">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>1300.0</v>
+      </c>
+      <c r="E13">
+        <v>1290.0</v>
+      </c>
+      <c r="F13">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>30.0</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1390.0</v>
+      </c>
+      <c r="E14">
+        <v>1360.0</v>
+      </c>
+      <c r="F14">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>70.0</v>
+      </c>
+      <c r="C15">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1280.0</v>
+      </c>
+      <c r="E15">
+        <v>1210.0</v>
+      </c>
+      <c r="F15">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>40.0</v>
+      </c>
+      <c r="C16">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1270.0</v>
+      </c>
+      <c r="E16">
+        <v>1230.0</v>
+      </c>
+      <c r="F16">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1310.0</v>
+      </c>
+      <c r="E17">
+        <v>1300.0</v>
+      </c>
+      <c r="F17">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1330.0</v>
+      </c>
+      <c r="E18">
+        <v>1320.0</v>
+      </c>
+      <c r="F18">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>20.0</v>
+      </c>
+      <c r="C19">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>1140.0</v>
+      </c>
+      <c r="E19">
+        <v>1120.0</v>
+      </c>
+      <c r="F19">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>20.0</v>
+      </c>
+      <c r="C20">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <v>1200.0</v>
+      </c>
+      <c r="E20">
+        <v>1180.0</v>
+      </c>
+      <c r="F20">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>20.0</v>
+      </c>
+      <c r="C21">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <v>1220.0</v>
+      </c>
+      <c r="E21">
+        <v>1200.0</v>
+      </c>
+      <c r="F21">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>1270.0</v>
+      </c>
+      <c r="E22">
+        <v>1260.0</v>
+      </c>
+      <c r="F22">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>1140.0</v>
+      </c>
+      <c r="E23">
+        <v>1130.0</v>
+      </c>
+      <c r="F23">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>20.0</v>
+      </c>
+      <c r="C24">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>1340.0</v>
+      </c>
+      <c r="E24">
+        <v>1320.0</v>
+      </c>
+      <c r="F24">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <v>1230.0</v>
+      </c>
+      <c r="E25">
+        <v>1220.0</v>
+      </c>
+      <c r="F25">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>20.0</v>
+      </c>
+      <c r="C26">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <v>1170.0</v>
+      </c>
+      <c r="E26">
+        <v>1150.0</v>
+      </c>
+      <c r="F26">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <v>1160.0</v>
+      </c>
+      <c r="E27">
+        <v>1150.0</v>
+      </c>
+      <c r="F27">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>20.0</v>
+      </c>
+      <c r="C28">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <v>1240.0</v>
+      </c>
+      <c r="E28">
+        <v>1220.0</v>
+      </c>
+      <c r="F28">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>110.0</v>
+      </c>
+      <c r="C29">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>1290.0</v>
+      </c>
+      <c r="E29">
+        <v>1180.0</v>
+      </c>
+      <c r="F29">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <v>1030.0</v>
+      </c>
+      <c r="E30">
+        <v>1020.0</v>
+      </c>
+      <c r="F30">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>20.0</v>
+      </c>
+      <c r="C31">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <v>1130.0</v>
+      </c>
+      <c r="E31">
+        <v>1110.0</v>
+      </c>
+      <c r="F31">
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1630.0</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>2640.0</v>
+      </c>
+      <c r="E2">
+        <v>1010.0</v>
+      </c>
+      <c r="F2">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1610.0</v>
+      </c>
+      <c r="C3">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>2620.0</v>
+      </c>
+      <c r="E3">
+        <v>1010.0</v>
+      </c>
+      <c r="F3">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1500.0</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>2470.0</v>
+      </c>
+      <c r="E4">
+        <v>970.0</v>
+      </c>
+      <c r="F4">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1530.0</v>
+      </c>
+      <c r="C5">
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>2610.0</v>
+      </c>
+      <c r="E5">
+        <v>1080.0</v>
+      </c>
+      <c r="F5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1380.0</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>2510.0</v>
+      </c>
+      <c r="E6">
+        <v>1130.0</v>
+      </c>
+      <c r="F6">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1470.0</v>
+      </c>
+      <c r="C7">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>2470.0</v>
+      </c>
+      <c r="E7">
+        <v>1000.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1530.0</v>
+      </c>
+      <c r="C8">
+        <v>1.0</v>
+      </c>
+      <c r="D8">
+        <v>2540.0</v>
+      </c>
+      <c r="E8">
+        <v>1010.0</v>
+      </c>
+      <c r="F8">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>1640.0</v>
+      </c>
+      <c r="C9">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>2640.0</v>
+      </c>
+      <c r="E9">
+        <v>1000.0</v>
+      </c>
+      <c r="F9">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1600.0</v>
+      </c>
+      <c r="C10">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>2620.0</v>
+      </c>
+      <c r="E10">
+        <v>1020.0</v>
+      </c>
+      <c r="F10">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1440.0</v>
+      </c>
+      <c r="C11">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>2610.0</v>
+      </c>
+      <c r="E11">
+        <v>1170.0</v>
+      </c>
+      <c r="F11">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2000.0</v>
+      </c>
+      <c r="C12">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>2920.0</v>
+      </c>
+      <c r="E12">
+        <v>920.0</v>
+      </c>
+      <c r="F12">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1560.0</v>
+      </c>
+      <c r="C13">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>2730.0</v>
+      </c>
+      <c r="E13">
+        <v>1170.0</v>
+      </c>
+      <c r="F13">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1490.0</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>2520.0</v>
+      </c>
+      <c r="E14">
+        <v>1030.0</v>
+      </c>
+      <c r="F14">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1320.0</v>
+      </c>
+      <c r="C15">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>2510.0</v>
+      </c>
+      <c r="E15">
+        <v>1190.0</v>
+      </c>
+      <c r="F15">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1300.0</v>
+      </c>
+      <c r="C16">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>2490.0</v>
+      </c>
+      <c r="E16">
+        <v>1190.0</v>
+      </c>
+      <c r="F16">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1360.0</v>
+      </c>
+      <c r="C17">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>2540.0</v>
+      </c>
+      <c r="E17">
+        <v>1180.0</v>
+      </c>
+      <c r="F17">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1500.0</v>
+      </c>
+      <c r="C18">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>2660.0</v>
+      </c>
+      <c r="E18">
+        <v>1160.0</v>
+      </c>
+      <c r="F18">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1610.0</v>
+      </c>
+      <c r="C19">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>2480.0</v>
+      </c>
+      <c r="E19">
+        <v>870.0</v>
+      </c>
+      <c r="F19">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1460.0</v>
+      </c>
+      <c r="C20">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <v>2600.0</v>
+      </c>
+      <c r="E20">
+        <v>1140.0</v>
+      </c>
+      <c r="F20">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1730.0</v>
+      </c>
+      <c r="C21">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <v>2750.0</v>
+      </c>
+      <c r="E21">
+        <v>1020.0</v>
+      </c>
+      <c r="F21">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1350.0</v>
+      </c>
+      <c r="C22">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>2540.0</v>
+      </c>
+      <c r="E22">
+        <v>1190.0</v>
+      </c>
+      <c r="F22">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1280.0</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>2300.0</v>
+      </c>
+      <c r="E23">
+        <v>1020.0</v>
+      </c>
+      <c r="F23">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1360.0</v>
+      </c>
+      <c r="C24">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>2530.0</v>
+      </c>
+      <c r="E24">
+        <v>1170.0</v>
+      </c>
+      <c r="F24">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1250.0</v>
+      </c>
+      <c r="C25">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <v>2390.0</v>
+      </c>
+      <c r="E25">
+        <v>1140.0</v>
+      </c>
+      <c r="F25">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1700.0</v>
+      </c>
+      <c r="C26">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <v>2670.0</v>
+      </c>
+      <c r="E26">
+        <v>970.0</v>
+      </c>
+      <c r="F26">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1760.0</v>
+      </c>
+      <c r="C27">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <v>2870.0</v>
+      </c>
+      <c r="E27">
+        <v>1110.0</v>
+      </c>
+      <c r="F27">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1380.0</v>
+      </c>
+      <c r="C28">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <v>2420.0</v>
+      </c>
+      <c r="E28">
+        <v>1040.0</v>
+      </c>
+      <c r="F28">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1500.0</v>
+      </c>
+      <c r="C29">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>2640.0</v>
+      </c>
+      <c r="E29">
+        <v>1140.0</v>
+      </c>
+      <c r="F29">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1370.0</v>
+      </c>
+      <c r="C30">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <v>2510.0</v>
+      </c>
+      <c r="E30">
+        <v>1140.0</v>
+      </c>
+      <c r="F30">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1650.0</v>
+      </c>
+      <c r="C31">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <v>2550.0</v>
+      </c>
+      <c r="E31">
+        <v>900.0</v>
+      </c>
+      <c r="F31">
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>10.0</v>
       </c>
       <c r="C2">
@@ -532,7 +4342,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -552,7 +4362,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>10.0</v>
@@ -572,7 +4382,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>10.0</v>
@@ -592,7 +4402,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>10.0</v>
@@ -612,7 +4422,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>10.0</v>
@@ -632,7 +4442,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>10.0</v>
@@ -652,7 +4462,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>10.0</v>
@@ -672,7 +4482,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>10.0</v>
@@ -692,7 +4502,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>10.0</v>
@@ -712,7 +4522,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>10.0</v>
@@ -732,7 +4542,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>10.0</v>
@@ -752,7 +4562,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>20.0</v>
@@ -767,12 +4577,12 @@
         <v>260.0</v>
       </c>
       <c r="F14">
-        <v>1188.37</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>10.0</v>
@@ -792,7 +4602,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>10.0</v>
@@ -812,7 +4622,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>10.0</v>
@@ -832,7 +4642,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>10.0</v>
@@ -852,7 +4662,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>10.0</v>
@@ -872,7 +4682,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>10.0</v>
@@ -892,7 +4702,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>10.0</v>
@@ -912,7 +4722,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>10.0</v>
@@ -932,7 +4742,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>10.0</v>
@@ -952,7 +4762,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>10.0</v>
@@ -972,7 +4782,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>10.0</v>
@@ -992,7 +4802,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>10.0</v>
@@ -1012,7 +4822,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>10.0</v>
@@ -1032,7 +4842,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>10.0</v>
@@ -1052,7 +4862,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>10.0</v>
@@ -1072,7 +4882,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>10.0</v>
@@ -1092,7 +4902,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0.0</v>
@@ -1108,6 +4918,3804 @@
       </c>
       <c r="F31">
         <v>6.33348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>350.0</v>
+      </c>
+      <c r="E2">
+        <v>340.0</v>
+      </c>
+      <c r="F2">
+        <v>6.2755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>350.0</v>
+      </c>
+      <c r="E3">
+        <v>340.0</v>
+      </c>
+      <c r="F3">
+        <v>1.14418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>390.0</v>
+      </c>
+      <c r="E4">
+        <v>380.0</v>
+      </c>
+      <c r="F4">
+        <v>1.98855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>410.0</v>
+      </c>
+      <c r="E5">
+        <v>400.0</v>
+      </c>
+      <c r="F5">
+        <v>1.17063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>430.0</v>
+      </c>
+      <c r="E6">
+        <v>420.0</v>
+      </c>
+      <c r="F6">
+        <v>1.97737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>430.0</v>
+      </c>
+      <c r="E7">
+        <v>420.0</v>
+      </c>
+      <c r="F7">
+        <v>0.858926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>440.0</v>
+      </c>
+      <c r="E8">
+        <v>430.0</v>
+      </c>
+      <c r="F8">
+        <v>11.2445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>380.0</v>
+      </c>
+      <c r="E9">
+        <v>370.0</v>
+      </c>
+      <c r="F9">
+        <v>1.16931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>400.0</v>
+      </c>
+      <c r="E10">
+        <v>390.0</v>
+      </c>
+      <c r="F10">
+        <v>1.35955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>410.0</v>
+      </c>
+      <c r="E11">
+        <v>400.0</v>
+      </c>
+      <c r="F11">
+        <v>1.24018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>440.0</v>
+      </c>
+      <c r="E12">
+        <v>430.0</v>
+      </c>
+      <c r="F12">
+        <v>1.06686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>380.0</v>
+      </c>
+      <c r="E13">
+        <v>370.0</v>
+      </c>
+      <c r="F13">
+        <v>7.0805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>360.0</v>
+      </c>
+      <c r="E14">
+        <v>350.0</v>
+      </c>
+      <c r="F14">
+        <v>1.58856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>310.0</v>
+      </c>
+      <c r="E15">
+        <v>300.0</v>
+      </c>
+      <c r="F15">
+        <v>1.11853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>400.0</v>
+      </c>
+      <c r="E16">
+        <v>390.0</v>
+      </c>
+      <c r="F16">
+        <v>1.98595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>380.0</v>
+      </c>
+      <c r="E17">
+        <v>370.0</v>
+      </c>
+      <c r="F17">
+        <v>3.70293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>360.0</v>
+      </c>
+      <c r="E18">
+        <v>350.0</v>
+      </c>
+      <c r="F18">
+        <v>0.533924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>420.0</v>
+      </c>
+      <c r="E19">
+        <v>410.0</v>
+      </c>
+      <c r="F19">
+        <v>0.539701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>440.0</v>
+      </c>
+      <c r="E20">
+        <v>430.0</v>
+      </c>
+      <c r="F20">
+        <v>1.48682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>370.0</v>
+      </c>
+      <c r="E21">
+        <v>360.0</v>
+      </c>
+      <c r="F21">
+        <v>0.794627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>320.0</v>
+      </c>
+      <c r="E22">
+        <v>310.0</v>
+      </c>
+      <c r="F22">
+        <v>0.647009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>470.0</v>
+      </c>
+      <c r="E23">
+        <v>460.0</v>
+      </c>
+      <c r="F23">
+        <v>3.6331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>420.0</v>
+      </c>
+      <c r="E24">
+        <v>410.0</v>
+      </c>
+      <c r="F24">
+        <v>5.53211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>350.0</v>
+      </c>
+      <c r="E25">
+        <v>340.0</v>
+      </c>
+      <c r="F25">
+        <v>0.578376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>320.0</v>
+      </c>
+      <c r="E26">
+        <v>310.0</v>
+      </c>
+      <c r="F26">
+        <v>25.5015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>310.0</v>
+      </c>
+      <c r="E27">
+        <v>300.0</v>
+      </c>
+      <c r="F27">
+        <v>0.685145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>410.0</v>
+      </c>
+      <c r="E28">
+        <v>400.0</v>
+      </c>
+      <c r="F28">
+        <v>2.77048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>360.0</v>
+      </c>
+      <c r="E29">
+        <v>350.0</v>
+      </c>
+      <c r="F29">
+        <v>1.35916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>360.0</v>
+      </c>
+      <c r="E30">
+        <v>350.0</v>
+      </c>
+      <c r="F30">
+        <v>2.60698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>370.0</v>
+      </c>
+      <c r="E31">
+        <v>360.0</v>
+      </c>
+      <c r="F31">
+        <v>1.0164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>640.0</v>
+      </c>
+      <c r="E2">
+        <v>640.0</v>
+      </c>
+      <c r="F2">
+        <v>1.90234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>750.0</v>
+      </c>
+      <c r="E3">
+        <v>740.0</v>
+      </c>
+      <c r="F3">
+        <v>1.95918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>800.0</v>
+      </c>
+      <c r="E4">
+        <v>790.0</v>
+      </c>
+      <c r="F4">
+        <v>1.06309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>770.0</v>
+      </c>
+      <c r="E5">
+        <v>760.0</v>
+      </c>
+      <c r="F5">
+        <v>0.686208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>690.0</v>
+      </c>
+      <c r="E6">
+        <v>680.0</v>
+      </c>
+      <c r="F6">
+        <v>0.336106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>590.0</v>
+      </c>
+      <c r="E7">
+        <v>580.0</v>
+      </c>
+      <c r="F7">
+        <v>0.209917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>590.0</v>
+      </c>
+      <c r="E8">
+        <v>580.0</v>
+      </c>
+      <c r="F8">
+        <v>0.720335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>720.0</v>
+      </c>
+      <c r="E9">
+        <v>710.0</v>
+      </c>
+      <c r="F9">
+        <v>0.874423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>710.0</v>
+      </c>
+      <c r="E10">
+        <v>700.0</v>
+      </c>
+      <c r="F10">
+        <v>0.344188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>640.0</v>
+      </c>
+      <c r="E11">
+        <v>630.0</v>
+      </c>
+      <c r="F11">
+        <v>0.819299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>600.0</v>
+      </c>
+      <c r="E12">
+        <v>590.0</v>
+      </c>
+      <c r="F12">
+        <v>0.252485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>710.0</v>
+      </c>
+      <c r="E13">
+        <v>700.0</v>
+      </c>
+      <c r="F13">
+        <v>0.758138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>630.0</v>
+      </c>
+      <c r="E14">
+        <v>620.0</v>
+      </c>
+      <c r="F14">
+        <v>0.70337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>650.0</v>
+      </c>
+      <c r="E15">
+        <v>640.0</v>
+      </c>
+      <c r="F15">
+        <v>1.53167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>580.0</v>
+      </c>
+      <c r="E16">
+        <v>570.0</v>
+      </c>
+      <c r="F16">
+        <v>0.78849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>590.0</v>
+      </c>
+      <c r="E17">
+        <v>580.0</v>
+      </c>
+      <c r="F17">
+        <v>0.558736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>660.0</v>
+      </c>
+      <c r="E18">
+        <v>650.0</v>
+      </c>
+      <c r="F18">
+        <v>0.341085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>630.0</v>
+      </c>
+      <c r="E19">
+        <v>620.0</v>
+      </c>
+      <c r="F19">
+        <v>0.945553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>740.0</v>
+      </c>
+      <c r="E20">
+        <v>730.0</v>
+      </c>
+      <c r="F20">
+        <v>0.831623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>650.0</v>
+      </c>
+      <c r="E21">
+        <v>640.0</v>
+      </c>
+      <c r="F21">
+        <v>1.01649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>680.0</v>
+      </c>
+      <c r="E22">
+        <v>680.0</v>
+      </c>
+      <c r="F22">
+        <v>4.16512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>660.0</v>
+      </c>
+      <c r="E23">
+        <v>650.0</v>
+      </c>
+      <c r="F23">
+        <v>0.81459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>590.0</v>
+      </c>
+      <c r="E24">
+        <v>580.0</v>
+      </c>
+      <c r="F24">
+        <v>0.306573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>660.0</v>
+      </c>
+      <c r="E25">
+        <v>650.0</v>
+      </c>
+      <c r="F25">
+        <v>0.203788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>560.0</v>
+      </c>
+      <c r="E26">
+        <v>550.0</v>
+      </c>
+      <c r="F26">
+        <v>0.409309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>660.0</v>
+      </c>
+      <c r="E27">
+        <v>650.0</v>
+      </c>
+      <c r="F27">
+        <v>2.0913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>640.0</v>
+      </c>
+      <c r="E28">
+        <v>630.0</v>
+      </c>
+      <c r="F28">
+        <v>0.683283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>710.0</v>
+      </c>
+      <c r="E29">
+        <v>700.0</v>
+      </c>
+      <c r="F29">
+        <v>0.347224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>650.0</v>
+      </c>
+      <c r="E30">
+        <v>640.0</v>
+      </c>
+      <c r="F30">
+        <v>0.474879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>750.0</v>
+      </c>
+      <c r="E31">
+        <v>740.0</v>
+      </c>
+      <c r="F31">
+        <v>1.19128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>640.0</v>
+      </c>
+      <c r="E2">
+        <v>630.0</v>
+      </c>
+      <c r="F2">
+        <v>8.7277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>550.0</v>
+      </c>
+      <c r="E3">
+        <v>540.0</v>
+      </c>
+      <c r="F3">
+        <v>10.3049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>500.0</v>
+      </c>
+      <c r="E4">
+        <v>490.0</v>
+      </c>
+      <c r="F4">
+        <v>6.07142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>590.0</v>
+      </c>
+      <c r="E5">
+        <v>580.0</v>
+      </c>
+      <c r="F5">
+        <v>11.8094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>520.0</v>
+      </c>
+      <c r="E6">
+        <v>510.0</v>
+      </c>
+      <c r="F6">
+        <v>9.89789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>630.0</v>
+      </c>
+      <c r="E7">
+        <v>620.0</v>
+      </c>
+      <c r="F7">
+        <v>75.801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>650.0</v>
+      </c>
+      <c r="E8">
+        <v>640.0</v>
+      </c>
+      <c r="F8">
+        <v>8.9502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>570.0</v>
+      </c>
+      <c r="E9">
+        <v>560.0</v>
+      </c>
+      <c r="F9">
+        <v>42.154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>540.0</v>
+      </c>
+      <c r="E10">
+        <v>530.0</v>
+      </c>
+      <c r="F10">
+        <v>14.6615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>560.0</v>
+      </c>
+      <c r="E11">
+        <v>550.0</v>
+      </c>
+      <c r="F11">
+        <v>3.69666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>590.0</v>
+      </c>
+      <c r="E12">
+        <v>580.0</v>
+      </c>
+      <c r="F12">
+        <v>6.81371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>480.0</v>
+      </c>
+      <c r="E13">
+        <v>470.0</v>
+      </c>
+      <c r="F13">
+        <v>7.81715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>530.0</v>
+      </c>
+      <c r="E14">
+        <v>520.0</v>
+      </c>
+      <c r="F14">
+        <v>29.7463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>510.0</v>
+      </c>
+      <c r="E15">
+        <v>500.0</v>
+      </c>
+      <c r="F15">
+        <v>3.43132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>540.0</v>
+      </c>
+      <c r="E16">
+        <v>530.0</v>
+      </c>
+      <c r="F16">
+        <v>9.0931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>510.0</v>
+      </c>
+      <c r="E17">
+        <v>500.0</v>
+      </c>
+      <c r="F17">
+        <v>8.49786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>630.0</v>
+      </c>
+      <c r="E18">
+        <v>620.0</v>
+      </c>
+      <c r="F18">
+        <v>4.34965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>550.0</v>
+      </c>
+      <c r="E19">
+        <v>540.0</v>
+      </c>
+      <c r="F19">
+        <v>11.4162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>590.0</v>
+      </c>
+      <c r="E20">
+        <v>580.0</v>
+      </c>
+      <c r="F20">
+        <v>10.9996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>520.0</v>
+      </c>
+      <c r="E21">
+        <v>510.0</v>
+      </c>
+      <c r="F21">
+        <v>63.0785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>480.0</v>
+      </c>
+      <c r="E22">
+        <v>470.0</v>
+      </c>
+      <c r="F22">
+        <v>7.8117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>550.0</v>
+      </c>
+      <c r="E23">
+        <v>540.0</v>
+      </c>
+      <c r="F23">
+        <v>8.12653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>560.0</v>
+      </c>
+      <c r="E24">
+        <v>550.0</v>
+      </c>
+      <c r="F24">
+        <v>17.166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>600.0</v>
+      </c>
+      <c r="E25">
+        <v>590.0</v>
+      </c>
+      <c r="F25">
+        <v>13.8219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>660.0</v>
+      </c>
+      <c r="E26">
+        <v>650.0</v>
+      </c>
+      <c r="F26">
+        <v>4.6648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>650.0</v>
+      </c>
+      <c r="E27">
+        <v>640.0</v>
+      </c>
+      <c r="F27">
+        <v>14.9401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>660.0</v>
+      </c>
+      <c r="E28">
+        <v>650.0</v>
+      </c>
+      <c r="F28">
+        <v>24.4312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>610.0</v>
+      </c>
+      <c r="E29">
+        <v>600.0</v>
+      </c>
+      <c r="F29">
+        <v>20.5838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>450.0</v>
+      </c>
+      <c r="E30">
+        <v>440.0</v>
+      </c>
+      <c r="F30">
+        <v>7.46183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>590.0</v>
+      </c>
+      <c r="E31">
+        <v>580.0</v>
+      </c>
+      <c r="F31">
+        <v>24.4438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>790.0</v>
+      </c>
+      <c r="E2">
+        <v>780.0</v>
+      </c>
+      <c r="F2">
+        <v>18.6557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>740.0</v>
+      </c>
+      <c r="E3">
+        <v>730.0</v>
+      </c>
+      <c r="F3">
+        <v>6.03183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>760.0</v>
+      </c>
+      <c r="E4">
+        <v>750.0</v>
+      </c>
+      <c r="F4">
+        <v>8.30678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>730.0</v>
+      </c>
+      <c r="E5">
+        <v>720.0</v>
+      </c>
+      <c r="F5">
+        <v>7.96312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>820.0</v>
+      </c>
+      <c r="E6">
+        <v>810.0</v>
+      </c>
+      <c r="F6">
+        <v>7.91247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>790.0</v>
+      </c>
+      <c r="E7">
+        <v>780.0</v>
+      </c>
+      <c r="F7">
+        <v>7.59526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>730.0</v>
+      </c>
+      <c r="E8">
+        <v>720.0</v>
+      </c>
+      <c r="F8">
+        <v>7.75415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>720.0</v>
+      </c>
+      <c r="E9">
+        <v>710.0</v>
+      </c>
+      <c r="F9">
+        <v>4.33219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>820.0</v>
+      </c>
+      <c r="E10">
+        <v>810.0</v>
+      </c>
+      <c r="F10">
+        <v>7.41755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>650.0</v>
+      </c>
+      <c r="E11">
+        <v>640.0</v>
+      </c>
+      <c r="F11">
+        <v>15.1818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>840.0</v>
+      </c>
+      <c r="E12">
+        <v>830.0</v>
+      </c>
+      <c r="F12">
+        <v>11.4902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>790.0</v>
+      </c>
+      <c r="E13">
+        <v>780.0</v>
+      </c>
+      <c r="F13">
+        <v>2.71807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>650.0</v>
+      </c>
+      <c r="E14">
+        <v>640.0</v>
+      </c>
+      <c r="F14">
+        <v>11.3481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>700.0</v>
+      </c>
+      <c r="E15">
+        <v>690.0</v>
+      </c>
+      <c r="F15">
+        <v>12.9185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>820.0</v>
+      </c>
+      <c r="E16">
+        <v>810.0</v>
+      </c>
+      <c r="F16">
+        <v>7.88819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>810.0</v>
+      </c>
+      <c r="E17">
+        <v>800.0</v>
+      </c>
+      <c r="F17">
+        <v>4.04706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>790.0</v>
+      </c>
+      <c r="E18">
+        <v>790.0</v>
+      </c>
+      <c r="F18">
+        <v>5.57628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>770.0</v>
+      </c>
+      <c r="E19">
+        <v>760.0</v>
+      </c>
+      <c r="F19">
+        <v>5.78581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>740.0</v>
+      </c>
+      <c r="E20">
+        <v>730.0</v>
+      </c>
+      <c r="F20">
+        <v>5.54238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>770.0</v>
+      </c>
+      <c r="E21">
+        <v>760.0</v>
+      </c>
+      <c r="F21">
+        <v>18.1729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>830.0</v>
+      </c>
+      <c r="E22">
+        <v>820.0</v>
+      </c>
+      <c r="F22">
+        <v>2.62461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>790.0</v>
+      </c>
+      <c r="E23">
+        <v>780.0</v>
+      </c>
+      <c r="F23">
+        <v>6.5473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>660.0</v>
+      </c>
+      <c r="E24">
+        <v>650.0</v>
+      </c>
+      <c r="F24">
+        <v>3.75793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>710.0</v>
+      </c>
+      <c r="E25">
+        <v>700.0</v>
+      </c>
+      <c r="F25">
+        <v>2.89896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>750.0</v>
+      </c>
+      <c r="E26">
+        <v>740.0</v>
+      </c>
+      <c r="F26">
+        <v>8.59418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>660.0</v>
+      </c>
+      <c r="E27">
+        <v>650.0</v>
+      </c>
+      <c r="F27">
+        <v>5.30923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>700.0</v>
+      </c>
+      <c r="E28">
+        <v>690.0</v>
+      </c>
+      <c r="F28">
+        <v>4.1192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>800.0</v>
+      </c>
+      <c r="E29">
+        <v>790.0</v>
+      </c>
+      <c r="F29">
+        <v>7.05658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>740.0</v>
+      </c>
+      <c r="E30">
+        <v>730.0</v>
+      </c>
+      <c r="F30">
+        <v>4.53495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>770.0</v>
+      </c>
+      <c r="E31">
+        <v>760.0</v>
+      </c>
+      <c r="F31">
+        <v>6.24191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>520.0</v>
+      </c>
+      <c r="E2">
+        <v>510.0</v>
+      </c>
+      <c r="F2">
+        <v>72.2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>560.0</v>
+      </c>
+      <c r="E3">
+        <v>550.0</v>
+      </c>
+      <c r="F3">
+        <v>31.0117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>580.0</v>
+      </c>
+      <c r="E4">
+        <v>570.0</v>
+      </c>
+      <c r="F4">
+        <v>143.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>690.0</v>
+      </c>
+      <c r="E5">
+        <v>680.0</v>
+      </c>
+      <c r="F5">
+        <v>157.545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>700.0</v>
+      </c>
+      <c r="E6">
+        <v>690.0</v>
+      </c>
+      <c r="F6">
+        <v>127.677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>20.0</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>650.0</v>
+      </c>
+      <c r="E7">
+        <v>630.0</v>
+      </c>
+      <c r="F7">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>630.0</v>
+      </c>
+      <c r="E8">
+        <v>620.0</v>
+      </c>
+      <c r="F8">
+        <v>52.0676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>700.0</v>
+      </c>
+      <c r="E9">
+        <v>690.0</v>
+      </c>
+      <c r="F9">
+        <v>75.3622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>570.0</v>
+      </c>
+      <c r="E10">
+        <v>560.0</v>
+      </c>
+      <c r="F10">
+        <v>33.4756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>590.0</v>
+      </c>
+      <c r="E11">
+        <v>580.0</v>
+      </c>
+      <c r="F11">
+        <v>58.326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>610.0</v>
+      </c>
+      <c r="E12">
+        <v>600.0</v>
+      </c>
+      <c r="F12">
+        <v>277.621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>650.0</v>
+      </c>
+      <c r="E13">
+        <v>640.0</v>
+      </c>
+      <c r="F13">
+        <v>36.8985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>640.0</v>
+      </c>
+      <c r="E14">
+        <v>630.0</v>
+      </c>
+      <c r="F14">
+        <v>29.3392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>620.0</v>
+      </c>
+      <c r="E15">
+        <v>610.0</v>
+      </c>
+      <c r="F15">
+        <v>332.047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>620.0</v>
+      </c>
+      <c r="E16">
+        <v>610.0</v>
+      </c>
+      <c r="F16">
+        <v>52.5247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>570.0</v>
+      </c>
+      <c r="E17">
+        <v>560.0</v>
+      </c>
+      <c r="F17">
+        <v>26.4092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>680.0</v>
+      </c>
+      <c r="E18">
+        <v>670.0</v>
+      </c>
+      <c r="F18">
+        <v>41.6714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>670.0</v>
+      </c>
+      <c r="E19">
+        <v>660.0</v>
+      </c>
+      <c r="F19">
+        <v>61.9592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>710.0</v>
+      </c>
+      <c r="E20">
+        <v>700.0</v>
+      </c>
+      <c r="F20">
+        <v>58.1062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>640.0</v>
+      </c>
+      <c r="E21">
+        <v>630.0</v>
+      </c>
+      <c r="F21">
+        <v>98.0238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>610.0</v>
+      </c>
+      <c r="E22">
+        <v>600.0</v>
+      </c>
+      <c r="F22">
+        <v>82.3218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>560.0</v>
+      </c>
+      <c r="E23">
+        <v>550.0</v>
+      </c>
+      <c r="F23">
+        <v>229.301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>600.0</v>
+      </c>
+      <c r="E24">
+        <v>590.0</v>
+      </c>
+      <c r="F24">
+        <v>47.2441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>530.0</v>
+      </c>
+      <c r="E25">
+        <v>520.0</v>
+      </c>
+      <c r="F25">
+        <v>126.356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>670.0</v>
+      </c>
+      <c r="E26">
+        <v>660.0</v>
+      </c>
+      <c r="F26">
+        <v>38.3362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>670.0</v>
+      </c>
+      <c r="E27">
+        <v>660.0</v>
+      </c>
+      <c r="F27">
+        <v>153.112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>660.0</v>
+      </c>
+      <c r="E28">
+        <v>650.0</v>
+      </c>
+      <c r="F28">
+        <v>37.8617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>590.0</v>
+      </c>
+      <c r="E29">
+        <v>580.0</v>
+      </c>
+      <c r="F29">
+        <v>188.558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>540.0</v>
+      </c>
+      <c r="E30">
+        <v>530.0</v>
+      </c>
+      <c r="F30">
+        <v>95.5828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>610.0</v>
+      </c>
+      <c r="E31">
+        <v>600.0</v>
+      </c>
+      <c r="F31">
+        <v>63.4038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>10.0</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>790.0</v>
+      </c>
+      <c r="E2">
+        <v>780.0</v>
+      </c>
+      <c r="F2">
+        <v>329.617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>10.0</v>
+      </c>
+      <c r="C3">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <v>820.0</v>
+      </c>
+      <c r="E3">
+        <v>810.0</v>
+      </c>
+      <c r="F3">
+        <v>67.8416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>10.0</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>720.0</v>
+      </c>
+      <c r="E4">
+        <v>710.0</v>
+      </c>
+      <c r="F4">
+        <v>147.023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>10.0</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>740.0</v>
+      </c>
+      <c r="E5">
+        <v>730.0</v>
+      </c>
+      <c r="F5">
+        <v>97.3628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>10.0</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>800.0</v>
+      </c>
+      <c r="E6">
+        <v>790.0</v>
+      </c>
+      <c r="F6">
+        <v>76.8905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10.0</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>880.0</v>
+      </c>
+      <c r="E7">
+        <v>870.0</v>
+      </c>
+      <c r="F7">
+        <v>156.266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>10.0</v>
+      </c>
+      <c r="C8">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <v>800.0</v>
+      </c>
+      <c r="E8">
+        <v>790.0</v>
+      </c>
+      <c r="F8">
+        <v>114.743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>10.0</v>
+      </c>
+      <c r="C9">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <v>660.0</v>
+      </c>
+      <c r="E9">
+        <v>650.0</v>
+      </c>
+      <c r="F9">
+        <v>97.465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10.0</v>
+      </c>
+      <c r="C10">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <v>750.0</v>
+      </c>
+      <c r="E10">
+        <v>740.0</v>
+      </c>
+      <c r="F10">
+        <v>106.705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <v>670.0</v>
+      </c>
+      <c r="E11">
+        <v>660.0</v>
+      </c>
+      <c r="F11">
+        <v>58.1894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10.0</v>
+      </c>
+      <c r="C12">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <v>930.0</v>
+      </c>
+      <c r="E12">
+        <v>920.0</v>
+      </c>
+      <c r="F12">
+        <v>96.6921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>10.0</v>
+      </c>
+      <c r="C13">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <v>650.0</v>
+      </c>
+      <c r="E13">
+        <v>640.0</v>
+      </c>
+      <c r="F13">
+        <v>45.5717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.0</v>
+      </c>
+      <c r="C14">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <v>780.0</v>
+      </c>
+      <c r="E14">
+        <v>770.0</v>
+      </c>
+      <c r="F14">
+        <v>84.0407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10.0</v>
+      </c>
+      <c r="C15">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <v>800.0</v>
+      </c>
+      <c r="E15">
+        <v>790.0</v>
+      </c>
+      <c r="F15">
+        <v>87.5664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>10.0</v>
+      </c>
+      <c r="C16">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <v>670.0</v>
+      </c>
+      <c r="E16">
+        <v>660.0</v>
+      </c>
+      <c r="F16">
+        <v>96.4069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>10.0</v>
+      </c>
+      <c r="C17">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <v>820.0</v>
+      </c>
+      <c r="E17">
+        <v>810.0</v>
+      </c>
+      <c r="F17">
+        <v>89.8263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10.0</v>
+      </c>
+      <c r="C18">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <v>780.0</v>
+      </c>
+      <c r="E18">
+        <v>770.0</v>
+      </c>
+      <c r="F18">
+        <v>87.2088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>10.0</v>
+      </c>
+      <c r="C19">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <v>740.0</v>
+      </c>
+      <c r="E19">
+        <v>730.0</v>
+      </c>
+      <c r="F19">
+        <v>371.104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>10.0</v>
+      </c>
+      <c r="C20">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <v>750.0</v>
+      </c>
+      <c r="E20">
+        <v>740.0</v>
+      </c>
+      <c r="F20">
+        <v>101.828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>10.0</v>
+      </c>
+      <c r="C21">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <v>670.0</v>
+      </c>
+      <c r="E21">
+        <v>660.0</v>
+      </c>
+      <c r="F21">
+        <v>111.571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10.0</v>
+      </c>
+      <c r="C22">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <v>800.0</v>
+      </c>
+      <c r="E22">
+        <v>790.0</v>
+      </c>
+      <c r="F22">
+        <v>122.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10.0</v>
+      </c>
+      <c r="C23">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <v>760.0</v>
+      </c>
+      <c r="E23">
+        <v>750.0</v>
+      </c>
+      <c r="F23">
+        <v>84.9259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>10.0</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <v>680.0</v>
+      </c>
+      <c r="E24">
+        <v>670.0</v>
+      </c>
+      <c r="F24">
+        <v>90.0746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>10.0</v>
+      </c>
+      <c r="C25">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <v>730.0</v>
+      </c>
+      <c r="E25">
+        <v>720.0</v>
+      </c>
+      <c r="F25">
+        <v>121.752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10.0</v>
+      </c>
+      <c r="C26">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <v>790.0</v>
+      </c>
+      <c r="E26">
+        <v>780.0</v>
+      </c>
+      <c r="F26">
+        <v>61.6602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10.0</v>
+      </c>
+      <c r="C27">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <v>750.0</v>
+      </c>
+      <c r="E27">
+        <v>740.0</v>
+      </c>
+      <c r="F27">
+        <v>104.942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>10.0</v>
+      </c>
+      <c r="C28">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <v>850.0</v>
+      </c>
+      <c r="E28">
+        <v>840.0</v>
+      </c>
+      <c r="F28">
+        <v>152.021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10.0</v>
+      </c>
+      <c r="C29">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <v>690.0</v>
+      </c>
+      <c r="E29">
+        <v>680.0</v>
+      </c>
+      <c r="F29">
+        <v>94.7895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>10.0</v>
+      </c>
+      <c r="C30">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <v>800.0</v>
+      </c>
+      <c r="E30">
+        <v>790.0</v>
+      </c>
+      <c r="F30">
+        <v>104.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10.0</v>
+      </c>
+      <c r="C31">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <v>820.0</v>
+      </c>
+      <c r="E31">
+        <v>810.0</v>
+      </c>
+      <c r="F31">
+        <v>51.5851</v>
       </c>
     </row>
   </sheetData>
